--- a/biology/Zoologie/Arctonyx_collaris/Arctonyx_collaris.xlsx
+++ b/biology/Zoologie/Arctonyx_collaris/Arctonyx_collaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blaireau à gorge blanche, blaireau asiatique, blaireau des sables
 Le Blaireau à gorge blanche, Blaireau-cochon  ou Blaireau à collier ou Blaireau asiatique (Arctonyx collaris) est la seule espèce du genre Arctonyx. C'est un mammifère carnivore qui fait partie de la famille des Mustélidés. 
-Il est proche du Blaireau européen (Meles meles) mais on le rencontre en Asie. Le déclin de certaines populations dont le territoire est exploité et morcelé par l'exploitation humaine, en particulier au Laos, au Viêt Nam, dans le sud-est de la Chine et peut-être Birmanie, fait craindre une menace pour l'espèce[2].
+Il est proche du Blaireau européen (Meles meles) mais on le rencontre en Asie. Le déclin de certaines populations dont le territoire est exploité et morcelé par l'exploitation humaine, en particulier au Laos, au Viêt Nam, dans le sud-est de la Chine et peut-être Birmanie, fait craindre une menace pour l'espèce.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom scientifique : Arctonyx collaris F. G. Cuvier, 1825
-Noms vulgaires (vulgarisation scientifique) : Blaireau à gorge blanche[3],[4],[5]
+Noms vulgaires (vulgarisation scientifique) : Blaireau à gorge blanche
 Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces :
-Français : blaireau asiatique[3], blaireau des sables[6], bali-saur, balisaur, blaireau à nez de cochon ou encore ours-cochon[réf. nécessaire]
-Autres langues : Hog Badger[7],[4] (blaireau porc), Hog-nosed Badger[4] (blaireau à nez de porc) ou encore sand Badger[4] (blaireau des sables) en anglais, Schweinsdachs (blaireau porc) en allemand[7]. Son nom signifie cochon des sables en hindou[réf. souhaitée].</t>
+Français : blaireau asiatique, blaireau des sables, bali-saur, balisaur, blaireau à nez de cochon ou encore ours-cochon[réf. nécessaire]
+Autres langues : Hog Badger, (blaireau porc), Hog-nosed Badger (blaireau à nez de porc) ou encore sand Badger (blaireau des sables) en anglais, Schweinsdachs (blaireau porc) en allemand. Son nom signifie cochon des sables en hindou[réf. souhaitée].</t>
         </is>
       </c>
     </row>
@@ -547,9 +561,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure de 55 à 70 cm de longueur[8] pour une queue presque dénuée de poils de 12 à 17 cm, et peut peser de 7 à 14 kg[9].  Son aspect est trapu. Son pelage est gris-blanc teinté de jaune, ondé de noir. Il possède de puissantes griffes et a un long museau mobile (groin) caractéristique[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure de 55 à 70 cm de longueur pour une queue presque dénuée de poils de 12 à 17 cm, et peut peser de 7 à 14 kg.  Son aspect est trapu. Son pelage est gris-blanc teinté de jaune, ondé de noir. Il possède de puissantes griffes et a un long museau mobile (groin) caractéristique.
 C'est principalement un insectivore se nourrissant de fourmis, termites et larves d'insectes mais il mange aussi des vers de terre, de petits mammifères tels les souris ainsi que du miel et des végétaux dont des racines comestibles qu'il déterre avec son groin.
 Les blaireaux à gorge blanche s'accouplent en été et, après une longue diapause, les petits naissent entre février et avril.
 </t>
@@ -580,10 +596,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-On trouve le blaireau-cochon dans les forêts d'Asie du Sud-Est jusqu'à 3 000 m d'altitude en Assam au nord-est de l'Inde, en Indochine, à Sumatra et en Chine[11].</t>
+On trouve le blaireau-cochon dans les forêts d'Asie du Sud-Est jusqu'à 3 000 m d'altitude en Assam au nord-est de l'Inde, en Indochine, à Sumatra et en Chine.</t>
         </is>
       </c>
     </row>
@@ -611,19 +629,21 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le genre monotypique et l'espèce ont été décrits pour la première fois en 1825 par le zoologiste français Frédéric Cuvier (1773-1838), frère du célèbre naturaliste Georges Cuvier. Traditionnellement classé dans la sous-famille des Melinae avec d'autres blaireaux, ce mustélidé fût un temps intégré à la grande sous-famille des Mustelinae[12], avant que deux études génétiques ne le réintègrent dans la sous famille des Melinae[13],[14].
-L'unique espèce du genre, selon Mammal Species of the World (version 3, 2005)  (28 mai 2013)[12], ITIS      (28 mai 2013)[1], Catalogue of Life                                  (28 mai 2013)[15], NCBI  (28 mai 2013)[16] et Paleobiology Database                   (28 mai 2013)[17], est :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le genre monotypique et l'espèce ont été décrits pour la première fois en 1825 par le zoologiste français Frédéric Cuvier (1773-1838), frère du célèbre naturaliste Georges Cuvier. Traditionnellement classé dans la sous-famille des Melinae avec d'autres blaireaux, ce mustélidé fût un temps intégré à la grande sous-famille des Mustelinae, avant que deux études génétiques ne le réintègrent dans la sous famille des Melinae,.
+L'unique espèce du genre, selon Mammal Species of the World (version 3, 2005)  (28 mai 2013), ITIS      (28 mai 2013), Catalogue of Life                                  (28 mai 2013), NCBI  (28 mai 2013) et Paleobiology Database                   (28 mai 2013), est :
 Arctonyx collaris F. G. Cuvier, 1825
-Sous espèces, selon Mammal Species of the World (version 3, 2005)  (28 mai 2013)[12] et Catalogue of Life                                   (28 mai 2013)[15]:
+Sous espèces, selon Mammal Species of the World (version 3, 2005)  (28 mai 2013) et Catalogue of Life                                   (28 mai 2013):
 genre Arctonyx
 espèce Arctonyx collaris
-sous-espèce Arctonyx collaris albogularis (Blyth, 1853) - balisaur à gorge blanche[18]
-sous-espèce Arctonyx collaris collaris F. G. Cuvier, 1825 - grand balisaur[18]
+sous-espèce Arctonyx collaris albogularis (Blyth, 1853) - balisaur à gorge blanche
+sous-espèce Arctonyx collaris collaris F. G. Cuvier, 1825 - grand balisaur
 sous-espèce Arctonyx collaris consul Pocock, 1940
 sous-espèce Arctonyx collaris dictator Thomas, 1910
-sous-espèce Arctonyx collaris hoevenii (Hubrecht, 1891) - balisaur de Sumatra[18]
+sous-espèce Arctonyx collaris hoevenii (Hubrecht, 1891) - balisaur de Sumatra
 sous-espèce Arctonyx collaris leucolaemus (Milne-Edwards, 1867)</t>
         </is>
       </c>
